--- a/mc/qrdqn/TWF.FIMTX HOT  _qrdqn Back-Testing Strategy Performance Report.xlsx
+++ b/mc/qrdqn/TWF.FIMTX HOT  _qrdqn Back-Testing Strategy Performance Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\A-Deep-RL-Framework-for-Index-futures-Trading\mc\qrdqn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C79A2A9-0563-4A6D-9316-AAA490D7FFF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF51C46E-94AF-479D-BEF2-96CA8030A6B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12540" xr2:uid="{662A241F-A7D7-45C3-83B5-095A1DD71A77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25890" windowHeight="12540" xr2:uid="{159308D8-51CD-4AFA-8918-DB5F61C8DEB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Analysis" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>Strategy Performance Summary</t>
   </si>
@@ -199,13 +199,13 @@
     <t>Trading Period</t>
   </si>
   <si>
-    <t>11 Yrs, 1 Mth, 12 Dys</t>
+    <t>11 Yrs, 4 Mths, 19 Dys</t>
   </si>
   <si>
     <t>Time in the Market</t>
   </si>
   <si>
-    <t>9 Yrs, 2 Mths, 7 Dys</t>
+    <t>9 Yrs, 5 Mths, 5 Dys</t>
   </si>
   <si>
     <t>Percent in the Market</t>
@@ -658,7 +658,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99B3E6E-521C-467E-BF3E-7FE81EAB9D83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D582839-469C-4FA8-9CDB-6E030AE0E112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +702,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC8770A-5F1E-4251-B788-0AF0A974060E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626CA2CA-5121-43E0-8AD7-D572F8F08C7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +746,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646B5031-EABB-478E-88F6-16DE6D8E1E9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B7AB87-9F3A-4C6B-8D70-AF0DD0DEA13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +790,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B000F8-E038-455F-A7E4-AE53F621E94E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCBA0DE-EE02-4176-A603-7F67BB33AE6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +834,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA74BF8E-C453-43A0-AA24-015B0FC576A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF8FBB4-7826-42AE-A05D-8F75D7B0BE68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E29F220-4562-4880-913E-381354EF5CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85211C4-7F82-4500-835C-4946B4823905}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +922,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA53188E-4FEF-45F3-89E4-2B978E510B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C779ED6C-3493-4385-9A82-59B57D14FBC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB820BDB-33A5-4FAF-8050-B58BC45923E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D78C804-7B6B-4F0E-BE98-0E7E16511F86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D3F1CF-1B47-443F-97E6-3868CBF568FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FB1C71-10EE-4B0A-BA76-76AE74595F1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6838738B-3CA1-4C68-A861-FEA6BA3E2128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5A2458-9D23-4D26-9BD6-C0C3286B8EFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1103,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CEABD8-F5BC-4A2C-9431-C96152ADDA6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC67C22-887E-4D5E-B4DE-5892BA942C3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAEA6F0-38C8-4C68-884A-F3014D8F0D5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BCE777-C19F-4346-9C4F-EB9951DA1962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E786065-978A-4861-A8CC-151D36DD5FCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7521EC3B-1727-40C7-B389-14A95638D842}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08CEF0F-3740-47BE-AE11-E2B58BAFC36E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0963F3-C1CC-47DE-8DC9-F14CB9946C64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17DB7C9-47D9-438A-8C44-E7B69CF910A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FCFAB0-3497-4CAE-9362-5DFD25D4C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1323,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8454D92-99D4-496C-A54B-83DF4965352B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531907E4-107F-43F3-BC9C-15BA5C64961A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1367,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F09FD25-FA4C-4F4D-B421-819280D5AB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DF255F-2203-49C5-B02A-9CAD765323BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1411,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA495F4-7DD9-452B-840C-81A201667E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4979DA36-B658-4E03-9711-83DC3227DC4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF697889-3FC5-4DD1-BD1D-E3437A469666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E73DF61-ED60-4554-A941-6E4F75C9CF5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6908CE25-7113-4964-9D8C-8E9CFCA66D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131805D6-0DBB-4C81-A4FB-BE8310E0FB87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D8EFD8-2D68-4D8D-A94D-758428EF0767}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E997B8-6431-4BE7-9E77-E39B910FC62D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DDBFA7-0B56-4C9E-89F9-95612D0682D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4721491-0839-406F-9486-EB79BAA2AC7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BBFC84-1F0D-4987-A43B-DCC8D445C7F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF6A85F-0530-40A4-BC13-CEF7BB2190C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1680,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABF7D0C-E9AD-443B-BF52-903491CDD91C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726DDFCA-FEE9-4A53-A30C-5A242E494E60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1966D5EB-DAF1-43D7-A05E-09BE7B8A78C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E190BE4C-881E-4031-9DD3-603E41FA0743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56ADE1E2-6779-47CA-9EAC-0B6A846918DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0ED53E-D01D-4AC1-A2DE-1ED6668E3F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE6955B-F71C-4BF4-A018-5E2989B0CA6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A1B632-8617-42DE-AEE9-0B36D5E1D5CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC70175-44BE-4BB5-8E61-041549C07FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B515FB17-77F3-492C-B517-511C8676FEBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1900,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D01494-E99C-43C6-AB28-BBEBBCD5CC7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA50CC4D-D124-4F51-A456-58A119CA7250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0426A23C-D183-4EED-9DA3-622C8ABDF40A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F867CB3C-B2C8-4035-A665-E9AC183373E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1988,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7E1373-BFF6-42A0-9529-22DAA86968BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EC9DB2-76B0-4C28-A6AC-DDAFB6EF10DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9183C3-4763-4639-8A78-484A8A290CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6B2C4C-E1CD-4081-A97B-04F92BD6B273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE0FECD-A578-4A59-BC7F-59F33C80B3B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6386A0E9-6BD9-4F5B-9564-D66AC017FC24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="14" name="圖片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1405A86-9755-482F-A66D-9B9495677F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A424F-BEAB-49A2-B64F-BF3068EA300D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2164,7 @@
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7FBC5B-0B77-414E-876A-92D625F11208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7699D7A6-4492-4FA7-88BB-1D3E592735DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="16" name="圖片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCA05E5-B189-48FE-AB05-8421E91557E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFD4419-0576-432A-A69B-F9BC84E56D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="17" name="圖片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03E79F-E428-4D9E-B01E-FBF20D56A9BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7127C1C-6A87-41AB-A312-03137B15FB7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C98B7-5A8D-4F3F-B264-ED5D9FFFC3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6207BDE9-395D-473A-B4FA-39143D267DC0}">
   <dimension ref="A1:D538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>3313800</v>
+        <v>3732400</v>
       </c>
       <c r="C4" s="3">
-        <v>3313800</v>
+        <v>3732400</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -2623,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>6915000</v>
+        <v>7472000</v>
       </c>
       <c r="C5" s="3">
-        <v>6915000</v>
+        <v>7472000</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -2637,10 +2637,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>-3601200</v>
+        <v>-3739600</v>
       </c>
       <c r="C6" s="3">
-        <v>-3601200</v>
+        <v>-3739600</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -2651,10 +2651,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>2326309.6922671045</v>
+        <v>2691221.7985767913</v>
       </c>
       <c r="C7" s="3">
-        <v>2326309.6922671045</v>
+        <v>2691221.7985767913</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>6243355.8261799514</v>
+        <v>6756312.1996827554</v>
       </c>
       <c r="C8" s="3">
-        <v>6243355.8261799514</v>
+        <v>6756312.1996827554</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>-3917046.1339128474</v>
+        <v>-4065090.4011059641</v>
       </c>
       <c r="C9" s="3">
-        <v>-3917046.1339128474</v>
+        <v>-4065090.4011059641</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2693,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>2603000</v>
+        <v>2591200</v>
       </c>
       <c r="C10" s="3">
-        <v>2603000</v>
+        <v>2591200</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2707,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>5040400</v>
+        <v>5117600</v>
       </c>
       <c r="C11" s="3">
-        <v>5040400</v>
+        <v>5117600</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -2721,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>-2437400</v>
+        <v>-2526400</v>
       </c>
       <c r="C12" s="3">
-        <v>-2437400</v>
+        <v>-2526400</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>9.4035187287173674</v>
+        <v>10.591373439273553</v>
       </c>
       <c r="C14" s="4">
-        <v>9.4035187287173674</v>
+        <v>10.591373439273553</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -2763,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>3.3138000000000001</v>
+        <v>3.7324000000000002</v>
       </c>
       <c r="C15" s="4">
-        <v>3.3138000000000001</v>
+        <v>3.7324000000000002</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -2833,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>8.6976377952755897</v>
+        <v>9.7963254593175861</v>
       </c>
       <c r="C20">
-        <v>8.6976377952755897</v>
+        <v>9.7963254593175861</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.9201932689103631</v>
+        <v>1.9980746603914856</v>
       </c>
       <c r="C21">
-        <v>1.9201932689103631</v>
+        <v>1.9980746603914856</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2861,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.5938938712328334</v>
+        <v>1.6620324600517142</v>
       </c>
       <c r="C22">
-        <v>1.5938938712328334</v>
+        <v>1.6620324600517142</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2875,10 +2875,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>2.0679412488717488</v>
+        <v>2.025649145028499</v>
       </c>
       <c r="C23">
-        <v>2.0679412488717488</v>
+        <v>2.025649145028499</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>237500</v>
+        <v>242000</v>
       </c>
       <c r="C26" s="3">
-        <v>237500</v>
+        <v>242000</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -2930,11 +2930,11 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-36500</v>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
@@ -2945,10 +2945,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>0.29900332262845847</v>
+        <v>0.32889242460796142</v>
       </c>
       <c r="C28" s="4">
-        <v>0.29900332262845847</v>
+        <v>0.32889242460796142</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>5</v>
@@ -2959,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>2.4916943552371538E-2</v>
+        <v>2.7407702050663452E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>2.4916943552371538E-2</v>
+        <v>2.7407702050663452E-2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>5</v>
@@ -2973,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1359863.9455782312</v>
       </c>
       <c r="C30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1359863.9455782312</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -2987,13 +2987,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>24457.462686567163</v>
+        <v>27243.795620437959</v>
       </c>
       <c r="C31" s="3">
-        <v>24457.462686567163</v>
+        <v>27243.795620437959</v>
       </c>
       <c r="D31" s="3">
-        <v>24457.462686567163</v>
+        <v>27243.795620437959</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3001,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>67134.544940296604</v>
+        <v>69572.971490068798</v>
       </c>
       <c r="C32" s="3">
-        <v>67134.544940296604</v>
+        <v>69572.971490068798</v>
       </c>
       <c r="D32" s="3">
-        <v>67134.544940296604</v>
+        <v>69572.971490068798</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C33">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>0.4472573839662447</v>
+        <v>0.45041322314049587</v>
       </c>
       <c r="C34" s="4">
-        <v>0.4472573839662447</v>
+        <v>0.45041322314049587</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>57.814222398233007</v>
+        <v>60.207684191080546</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.30163914754175647</v>
+        <v>0.31821879784887008</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.0449086581881741</v>
+        <v>1.1023422515954655</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.51684829564581058</v>
+        <v>0.54351952159833095</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.0347522179948431E-2</v>
+        <v>1.0850554415107369E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>121.39148369308457</v>
+        <v>116.42688509759932</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>19.110726643598618</v>
+        <v>21.524798154555938</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>18.118097320940404</v>
+        <v>20.406779661016948</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>8.6976377952755897</v>
+        <v>9.7963254593175861</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>15.011534025374855</v>
+        <v>14.943483275663207</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>14.231820667031165</v>
+        <v>14.167304537998907</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>6.8320209973753281</v>
+        <v>6.8010498687664045</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>13.415857510190914</v>
+        <v>15.520310257074922</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>12.719025108076021</v>
+        <v>14.714170577237788</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>6.1057997172364944</v>
+        <v>7.0635742744797678</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>0.82633399209486169</v>
+        <v>0.82822677925211097</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB852E-7BFA-4FBE-BEE9-F97F5953A469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3651E632-2460-4B8D-A05B-D7523D65D81F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3330,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD506752-094E-47A9-A2FC-E3E3CB6BF899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF57634-981C-4B32-917F-42024D5EA0C7}">
   <dimension ref="A1:D597"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3362,10 +3362,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>79</v>
       </c>
       <c r="B7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.4472573839662447</v>
+        <v>0.45041322314049587</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4472573839662447</v>
+        <v>0.45041322314049587</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="3">
-        <v>13982.27848101266</v>
+        <v>15423.140495867767</v>
       </c>
       <c r="C9" s="3">
-        <v>13982.27848101266</v>
+        <v>15423.140495867767</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -3446,10 +3446,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>65235.849056603773</v>
+        <v>68550.458715596338</v>
       </c>
       <c r="C10" s="3">
-        <v>65235.849056603773</v>
+        <v>68550.458715596338</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3460,10 +3460,10 @@
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>-27701.538461538461</v>
+        <v>-28330.303030303032</v>
       </c>
       <c r="C11" s="3">
-        <v>-27701.538461538461</v>
+        <v>-28330.303030303032</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -3474,10 +3474,10 @@
         <v>83</v>
       </c>
       <c r="B12">
-        <v>2.3549540090410117</v>
+        <v>2.4196867446942765</v>
       </c>
       <c r="C12">
-        <v>2.3549540090410117</v>
+        <v>2.4196867446942765</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -3516,10 +3516,10 @@
         <v>86</v>
       </c>
       <c r="B15">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="C15">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -3544,10 +3544,10 @@
         <v>88</v>
       </c>
       <c r="B17">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C17">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -3572,10 +3572,10 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C19">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3616,13 +3616,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="3">
-        <v>62495.704447966207</v>
+        <v>65844.772519195918</v>
       </c>
       <c r="C26" s="3">
-        <v>56946.362714532472</v>
+        <v>61003.279547319209</v>
       </c>
       <c r="D26" s="3">
-        <v>24386.236379289268</v>
+        <v>25074.666937865324</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>97</v>
       </c>
       <c r="B27" s="3">
-        <v>76477.982928978861</v>
+        <v>81267.913015063692</v>
       </c>
       <c r="C27" s="3">
-        <v>122182.21177113624</v>
+        <v>129553.73826291555</v>
       </c>
       <c r="D27" s="3">
-        <v>-3315.3020822491926</v>
+        <v>-3255.6360924377086</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>98</v>
       </c>
       <c r="B28" s="3">
-        <v>-48513.425966953546</v>
+        <v>-50421.632023328151</v>
       </c>
       <c r="C28" s="3">
-        <v>8289.4863420713027</v>
+        <v>7547.1791682771254</v>
       </c>
       <c r="D28" s="3">
-        <v>-52087.774840827726</v>
+        <v>-53404.969968168349</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,10 +3658,10 @@
         <v>99</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="B30" s="3">
-        <v>710800</v>
+        <v>1141200</v>
       </c>
       <c r="C30" s="3">
-        <v>1874600</v>
+        <v>2354400</v>
       </c>
       <c r="D30" s="3">
-        <v>-1163800</v>
+        <v>-1213200</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="3">
-        <v>48666.806722689071</v>
+        <v>50926.033057851244</v>
       </c>
       <c r="C38" s="3">
-        <v>-25949.579831932773</v>
+        <v>-26871.900826446279</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>109</v>
       </c>
       <c r="B41" s="4">
-        <v>2.6765495663590502E-2</v>
+        <v>2.7270192822102787E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-1.3881756680110355E-2</v>
+        <v>-1.4067610421454857E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="3">
-        <v>51807.548273532346</v>
+        <v>55136.726544777688</v>
       </c>
       <c r="C42" s="3">
-        <v>27338.183290875393</v>
+        <v>28446.613674862725</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>97</v>
       </c>
       <c r="B43" s="3">
-        <v>100474.35499622143</v>
+        <v>106062.75960262892</v>
       </c>
       <c r="C43" s="3">
-        <v>1388.6034589426231</v>
+        <v>1574.7128484164477</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="3">
-        <v>-3140.7415508432732</v>
+        <v>-4210.6934869264423</v>
       </c>
       <c r="C44" s="3">
-        <v>-53287.763122808166</v>
+        <v>-55318.514501309008</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>112</v>
       </c>
       <c r="B49">
-        <v>-0.35304123824700162</v>
+        <v>-0.17044320276062219</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>113</v>
       </c>
       <c r="B50">
-        <v>0.2759428639340773</v>
+        <v>0.13533901356656264</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="3">
-        <v>13982.278481012661</v>
+        <v>15423.140495867772</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,13 +3894,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" s="3">
-        <v>52579.31034482758</v>
+        <v>57926.666666666664</v>
       </c>
       <c r="D63" s="3">
-        <v>-30972.413793103449</v>
+        <v>-33366.666666666672</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,13 +3908,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" s="3">
-        <v>53411.764705882357</v>
+        <v>60000</v>
       </c>
       <c r="D64" s="3">
-        <v>-28870.588235294115</v>
+        <v>-27266.666666666668</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>86787.5</v>
       </c>
       <c r="D66" s="3">
-        <v>-21350</v>
+        <v>-30250</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,13 +3978,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C69" s="3">
-        <v>-31088</v>
+        <v>-33911.111111111109</v>
       </c>
       <c r="D69" s="3">
-        <v>58960</v>
+        <v>65340.740740740737</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4509A507-2683-4FCA-B1DB-BDC27A6DFE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1AECE-E0F2-4101-97C3-2F749C10483B}">
   <dimension ref="A1:G838"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4256,22 +4256,22 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>293000</v>
+        <v>748100</v>
       </c>
       <c r="C40" s="4">
-        <v>7.3538639158697891E-2</v>
+        <v>0.18776196571543308</v>
       </c>
       <c r="D40" s="3">
-        <v>329500</v>
+        <v>886500</v>
       </c>
       <c r="E40" s="3">
-        <v>-36500</v>
+        <v>-138400</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" s="4">
-        <v>0.66666666666700003</v>
+        <v>0.71428571428599996</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,7 +4625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9B6B43-8351-45F4-999F-638D10DA4C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAB9203-8084-4A7A-B343-E40C82DC604C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
